--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -27,31 +27,31 @@
     <t>expense</t>
   </si>
   <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>clubhouse</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>streetlights</t>
-  </si>
-  <si>
-    <t>households</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>pumps</t>
-  </si>
-  <si>
-    <t>waterheater</t>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Clubhouse</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Streetlights</t>
+  </si>
+  <si>
+    <t>Households</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Waterheater</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
